--- a/SampleTeam copy/SampleTeam2.xlsx
+++ b/SampleTeam copy/SampleTeam2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,37 +536,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ACYDBNivi5N_aI8giqDFMPfFfgIOpvw1bg4_r5AHazn2iVmNp1SJgZKjsg-_2gTlBlGvVfY</t>
+          <t>ACYDBNitPaElOvG5UpdXTEphCM__QC8nOGSsuLcmsCUs60MPjY-gaSARLAey7tQ0CSJj9gU</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-11-01T20:09:36.597Z</t>
+          <t>2024-11-01T22:32:49.203Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-11-01T20:09:36.597425Z</t>
+          <t>2024-11-01T22:32:49.203013Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>asdf</t>
+          <t>Jerry</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Satisfactory</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -576,32 +576,32 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Satisfactory</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Satisfactory</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>asdf</t>
+          <t>adfasd</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Kevin.LopezChavez01@student.csulb.edu</t>
+          <t>jerry.wu01@student.csulb.edu</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>aside</t>
+          <t>adsfasd</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Satisfactory</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -626,307 +626,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Excellent</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ACYDBNiu4NM1grqRX-tFCIq5KFMRCyQtU2LyaRy7M4gBbR35EJ8k7vKWS3mSWv4tzYNXK0s</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2024-11-01T18:57:05.369Z</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2024-11-01T18:57:05.369777Z</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>asdf</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Fair</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Fair</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Fair</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>asdf</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Kevin.Lopez@student.csulb.edu</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>asdf</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
           <t>Satisfactory</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Fair</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Satisfactory</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Fair</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ACYDBNjVDK3PhKq6eFMCUjWZSNh0qUqX2jnjmdCM20AN3FgWebNfu8bpxQzNlGBFIa1CTds</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2024-11-01T18:48:27.501Z</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2024-11-01T18:48:27.501231Z</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>kevin</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Poor</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Poor</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Poor</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>asdf</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Kevin.Lopez@student.csulb.edu</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>asdf</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Poor</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Poor</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Poor</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Poor</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ACYDBNjdCjhWC8iAFd6AjoskrXJS7IMHQo8DmGaMM8-TIzgzc4Cw3G8l7kI58A1szyRD5dI</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2024-11-01T19:08:41.692Z</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2024-11-01T19:08:41.692812Z</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>kevin</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Fair</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Fair</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Fair</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>asdf</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Kevin.LopezChavez01@student.csulb.edu</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>asdf</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Fair</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Fair</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Fair</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>Fair</t>
         </is>
       </c>
     </row>

--- a/SampleTeam copy/SampleTeam2.xlsx
+++ b/SampleTeam copy/SampleTeam2.xlsx
@@ -536,97 +536,97 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ACYDBNitPaElOvG5UpdXTEphCM__QC8nOGSsuLcmsCUs60MPjY-gaSARLAey7tQ0CSJj9gU</t>
+          <t>ACYDBNjkP-skmYhAC1ElMPOvzbtqF-UM8KlAjRXaL5jfkFjX23TF88gMaMNLvh5m09c79Ys</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-11-01T22:32:49.203Z</t>
+          <t>2024-11-02T01:20:11.877Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-11-01T22:32:49.203013Z</t>
+          <t>2024-11-02T01:20:11.877676Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Jerry</t>
+          <t>adsf</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>Very good</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Very good</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Very good</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Kevin.LopezChavez01@student.csulb.edu</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>Satisfactory</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Very good</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Satisfactory</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Satisfactory</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>adfasd</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>jerry.wu01@student.csulb.edu</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>adsfasd</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Satisfactory</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Satisfactory</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Satisfactory</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Satisfactory</t>
+          <t>Very good</t>
         </is>
       </c>
     </row>
